--- a/ADVGame/DesignerConfigs/Datas/Storyline.xlsx
+++ b/ADVGame/DesignerConfigs/Datas/Storyline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22410" windowHeight="10980"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -1388,7 +1388,7 @@
   <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
